--- a/防災包清單_Ver20250725.xlsx
+++ b/防災包清單_Ver20250725.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertHuang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E605195C-621B-48A6-948C-3D7A34F943FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB172D96-5E09-413B-9BC7-18D60285A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{D7959A59-5E3D-4E07-993D-F8A727B895D0}"/>
+    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{21E82D3A-6A5F-4605-BB94-747B891E418C}"/>
   </bookViews>
   <sheets>
-    <sheet name="RBT實際的購物清單" sheetId="1" r:id="rId1"/>
+    <sheet name="itemList" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">RBT實際的購物清單!$B$1:$V$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">itemList!$B$1:$V$34</definedName>
     <definedName name="TITLE">[1]選單!$C$4:$E$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="136">
   <si>
     <t>購買
 順序</t>
@@ -54,7 +54,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>暫存</t>
+    <t>主要</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -93,7 +93,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>備註</t>
+    <t>[效期] 備註</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每盒30顆，每顆可處理1公升汙水，需靜置1~4小時</t>
+    <t>[5年] 每盒30顆，每顆可處理1公升汙水，需靜置1~4小時</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -235,10 +235,6 @@
     <t>3衛生與醫療</t>
   </si>
   <si>
-    <t>美國LifeStrawPeak個人隨身濾水器4,000公升(精裝版包裝)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>https://tw.shp.ee/FfHYWbi</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -254,7 +250,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>每盒12包，每包可處理10公升汙水，需靜置1~4小時</t>
+    <t>[3年] 每盒12包，每包可處理10公升汙水，需靜置1~4小時</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -269,7 +265,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一組2瓶=50顆淨水錠＋50顆除味錠，可處理25公升汙水</t>
+    <t>[4年] 一組2瓶=50顆淨水錠＋50顆除味錠，可處理25公升汙水</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -307,7 +303,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>有多種口味，每包約350大卡，冷水20-30分鐘，熱水3-5分鐘</t>
+    <t>[5年] 有多種口味，每包約350大卡，冷水20-30分鐘，熱水3-5分鐘</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -330,7 +326,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>一袋24顆，合計480大卡，供2日最低生存需求，輕巧便攜，不建議當成標準糧食</t>
+    <t>[25年] 一袋24顆，合計480大卡，供2日最低生存需求，輕巧便攜，不建議當成標準糧食</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -338,268 +334,246 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>德國NRG-5棕褐色包裝(非素食)緊急乾糧</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>20年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20年] 500克一份，供應2,300大卡，70公斤男性一日所需，聽說味道普通</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>塊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>德國POW-R1緊急乾糧(1盒建議當成半天主食)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[20年] 250克一份，供應1,250大卡，70公斤男性半天所需，聽說算好吃</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.shp.ee/zTYzfTq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本Osaki大崎防災用柔濕巾(一包7枚)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7年] 擦拭全身的超大型濕紙巾捲</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.shp.ee/QXzGExJ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本緊急拋棄式廁所(一盒30份)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>15年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15年] 高分子聚合物粉末，將排泄物與尿凝固與消臭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.shp.ee/w4kthoZ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杏一藥局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>口服用藥品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳閱藥品外盒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>普拿疼、腸胃藥、感冒藥…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美奈德藥局</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>傷口處理藥品</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗生素軟膏、消毒液(氯己定噴霧消毒劑)、碘液、多尺寸滅菌彈性繃帶、滅菌大頭棉棒…</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡易拋棄式尿袋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣ADISI防水雨衣型披風+ADISI鋁箔保溫睡袋</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜尋中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[搜尋中]單晶矽太陽能充電板</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜尋中…為了安全性將以日本、台灣、歐美國品牌為目標</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>片</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[搜尋中]磷酸鐵鋰移動電站(LiFePO 4)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>座</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>蝦皮_電池哥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本Panasonic Evolta長效鹼性電池</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[10年] 包含：3號AA與4號AAA電池</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.shp.ee/vbbukfA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國CampMaid固體精密火種(一盒12顆裝)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每塊可以燃燒12分鐘，推薦搭配可放置固體或液態燃料的美國Vargo鈦金屬小爐具VT305</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.shp.ee/qVHMQgy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國電弧點火器兼防水LED手電筒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mini-USB充電口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣ADI AV-03免執照對講機(2支一組)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>免考取台灣NCC業餘無線電執照，較高功率的機種會被沒收與罰款</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.shp.ee/trpb5UN</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣寧威防煙頭罩</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5年] 大約耐熱500度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tw.shp.ee/6A6iFpk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>京品源</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>防災用品(包含：保溫鋁箔毯、醫療剪刀、IFAK快速反應包、德國BH-580乾糧*)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鋪地、覆蓋、破損替換，建議每人至少2張</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jingpinyuan.tw/product.php</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>避難防災包搭配(包含：戰術大防災包、德國POW-R1乾糧*、太陽能充電收音機…)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本品項詳閱京品源網站</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>批</t>
+  </si>
+  <si>
+    <t>黑熊學院</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>避難防災包搭配(包含：美國戰術止血帶、防身噴劑、破窗器、可摺水壺含濾嘴*、EDC隨身側背包...)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2年</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>止血帶x3、可彎曲水壺x2、[2年] 濾嘴可過濾1,000公升x5、防身噴劑兼破窗器x2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://kuma-academy.org/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>9其他</t>
-  </si>
-  <si>
-    <t>德國NRG-5棕褐色包裝(非素食)緊急乾糧</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>20年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>500克一份，供應2,300大卡，70公斤男性一日所需，聽說味道普通</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>塊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>德國POW-R1緊急乾糧(1盒建議當成半天主食)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>250克一份，供應1,250大卡，70公斤男性半天所需，聽說算好吃</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tw.shp.ee/zTYzfTq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本Osaki大崎防災用柔濕巾(一包7枚)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>擦拭全身的超大型濕紙巾捲</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tw.shp.ee/QXzGExJ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本緊急廁所(一盒30份)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>15年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>高分子聚合物粉末，將排泄物與尿凝固與消臭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tw.shp.ee/w4kthoZ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>藥局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗生素軟膏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>詳閱藥品外盒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>條</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>杏一藥局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>服用藥品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>普拿疼、腸胃藥、感冒藥…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美奈德藥局</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>傷口處理藥品</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>消毒液(氯己定噴霧消毒劑)、碘液、多尺寸滅菌彈性繃帶、滅菌大頭棉棒…</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>簡易尿袋(1包4個)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣ADISI防水雨衣型披風+ADISI鋁箔保溫睡袋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜尋中</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[搜尋中]單晶矽太陽能充電板</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜尋中…為了安全性將以日本、台灣、歐美國品牌為目標</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>片</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[搜尋中]磷酸鐵鋰移動電站(LiFePO 4)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>座</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦皮_電池哥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本Panasonic EVOLTA長效鹼性電池</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>10年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>包含：3號AA與4號AAA電池</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tw.shp.ee/vbbukfA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美國CampMaid固體燃料塊(12顆裝) x 5 + 鈦合金湯匙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>推薦搭配可放置固體或液態燃料的美國Vargo鈦金屬小爐具</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>顆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tw.shp.ee/qVHMQgy</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>美國電弧點火器兼防水LED手電筒</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>mini-USB充電口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣ADI AV-03免執照對講機2隻一組</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>免考取無線電使用執照，較高功率的機種會被沒收與罰款</t>
-  </si>
-  <si>
-    <t>https://tw.shp.ee/trpb5UN</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>台灣寧威防煙頭罩</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>大約耐熱500度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://tw.shp.ee/6A6iFpk</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>京品源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>防災用品(包含：保溫鋁箔毯、醫療剪刀、IFAK快速反應包、德國BH-580乾糧*)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>鋪地、覆蓋、破損替換，建議每人至少2張</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jingpinyuan.tw/product.php</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘖嘖_京品源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>避難防災包搭配(包含：戰術大防災包、德國POW-R1乾糧*、太陽能充電收音機…)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>基本品項詳閱網站</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>批</t>
-  </si>
-  <si>
-    <t>黑熊學院</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>避難防災包搭配(包含：美國戰術止血帶、防身噴劑、破窗器、可摺水壺含濾嘴*、EDC隨身側背包...)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2年</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>止血帶x3、可彎曲水壺x2、濾嘴可過濾1,000公升x5、防身噴劑兼破窗器x2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://kuma-academy.org/</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>9其他</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -607,7 +581,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>中國Keith鈦金屬筷子(560)+日本MontBell鈦金屬叉匙(465)</t>
+    <t>中國Keith鈦金屬筷子(560)+日本MontBell鈦金屬叉匙(465)-蝦幣折扣</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -619,12 +593,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -694,20 +669,7 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="8" tint="-0.249977111117893"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="8" tint="-0.249977111117893"/>
       <name val="微軟正黑體"/>
@@ -721,8 +683,16 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,12 +702,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,7 +786,7 @@
     <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -837,7 +801,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +822,7 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -867,7 +831,7 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -876,18 +840,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -900,7 +864,7 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -909,6 +873,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -921,22 +888,28 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +921,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{EAB08301-765C-4344-A741-604E67187DFD}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{8394FFF3-0F2F-464C-BB2E-C2BD0678B416}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -987,7 +960,6 @@
       <sheetName val="樞紐"/>
       <sheetName val="所得稅"/>
       <sheetName val="RBT實際的購物清單"/>
-      <sheetName val="避難用品清單20250724"/>
       <sheetName val="工作表1"/>
       <sheetName val="帳務明細"/>
       <sheetName val="預算'all"/>
@@ -1053,7 +1025,6 @@
       <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1375,41 +1346,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B74D0D-01DA-403C-B0ED-523E83F24C49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4EA9A5D-D0C6-48A0-B442-15239CFE1FDA}">
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="B1:AG62"/>
+  <dimension ref="B1:AG58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomRight" activeCell="A11" activeCellId="2" sqref="A4:XFD4 A7:XFD7 A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="8.73046875" style="27"/>
     <col min="2" max="2" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="5" style="38" customWidth="1"/>
-    <col min="5" max="5" width="11.53125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.53125" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="6.796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.19921875" style="41" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.53125" style="38" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="98" style="39" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" style="41" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="79.59765625" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.19921875" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5" style="39" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="42" customWidth="1"/>
-    <col min="17" max="17" width="8.9296875" style="42" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.9296875" style="43" customWidth="1"/>
-    <col min="19" max="19" width="22.73046875" style="44" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.46484375" style="45" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.59765625" style="46" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.46484375" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="98" style="40" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="42" customWidth="1"/>
+    <col min="13" max="13" width="87.73046875" style="40" customWidth="1"/>
+    <col min="14" max="14" width="6.19921875" style="40" customWidth="1"/>
+    <col min="15" max="15" width="5" style="40" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="43" customWidth="1"/>
+    <col min="17" max="17" width="8.9296875" style="44" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.9296875" style="45" customWidth="1"/>
+    <col min="19" max="19" width="22.73046875" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="32.46484375" style="47" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.59765625" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.46484375" style="47" bestFit="1" customWidth="1"/>
     <col min="23" max="30" width="3.59765625" style="27" customWidth="1"/>
     <col min="31" max="31" width="14.19921875" style="27" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="14.9296875" style="27" customWidth="1"/>
@@ -1424,7 +1396,7 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1496,12 +1468,10 @@
         <v>6</v>
       </c>
       <c r="C2" s="14">
-        <f t="shared" ref="C2:C32" si="0">IF(K2="","--",ROW()-ROW($C$1))</f>
+        <f t="shared" ref="C2:C28" si="0">IF(K2="","--",ROW()-ROW($C$1))</f>
         <v>1</v>
       </c>
-      <c r="D2" s="15">
-        <v>1</v>
-      </c>
+      <c r="D2" s="15"/>
       <c r="E2" s="16">
         <v>45828</v>
       </c>
@@ -1549,26 +1519,26 @@
         <v>31</v>
       </c>
       <c r="T2" s="25" t="str">
-        <f>IFERROR(S2/2500,"--")</f>
+        <f>IFERROR(ROUND(S2/2500,3),"--")</f>
         <v>--</v>
       </c>
       <c r="U2" s="26">
         <v>8</v>
       </c>
       <c r="V2" s="25">
-        <f>IFERROR(U2/2.5,"--")</f>
+        <f>IFERROR(ROUND(U2/2.5,3),"--")</f>
         <v>3.2</v>
       </c>
-      <c r="AE2" s="19" t="s">
+      <c r="AE2" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AF2" s="28">
-        <f t="shared" ref="AF2:AF10" si="1">SUMIFS($P:$P,$I:$I,$AE2)</f>
-        <v>10393</v>
-      </c>
-      <c r="AG2" s="29">
+      <c r="AF2" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE2)</f>
+        <v>9193</v>
+      </c>
+      <c r="AG2" s="30">
         <f>AF2/SUM(AF:AF)</f>
-        <v>0.18747745147557543</v>
+        <v>0.18177683744290432</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1579,9 +1549,7 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D3" s="15">
-        <v>2</v>
-      </c>
+      <c r="D3" s="15"/>
       <c r="E3" s="16">
         <v>45843</v>
       </c>
@@ -1619,7 +1587,7 @@
         <v>1275</v>
       </c>
       <c r="Q3" s="22">
-        <f t="shared" ref="Q3:Q62" si="2">IFERROR(ROUND(P3/N3,0),"--")</f>
+        <f t="shared" ref="Q3:Q58" si="1">IFERROR(ROUND(P3/N3,0),"--")</f>
         <v>638</v>
       </c>
       <c r="R3" s="23" t="s">
@@ -1629,26 +1597,26 @@
         <v>31</v>
       </c>
       <c r="T3" s="25" t="str">
-        <f t="shared" ref="T3:T32" si="3">IFERROR(S3/2500,"--")</f>
+        <f t="shared" ref="T3:T28" si="2">IFERROR(ROUND(S3/2500,3),"--")</f>
         <v>--</v>
       </c>
       <c r="U3" s="26">
         <v>30</v>
       </c>
       <c r="V3" s="25">
-        <f t="shared" ref="V3:V32" si="4">IFERROR(U3/2.5,"--")</f>
+        <f t="shared" ref="V3:V28" si="3">IFERROR(ROUND(U3/2.5,3),"--")</f>
         <v>12</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AE3" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="28">
-        <f t="shared" si="1"/>
-        <v>10475</v>
-      </c>
-      <c r="AG3" s="29">
-        <f t="shared" ref="AG3:AG10" si="5">AF3/SUM(AF:AF)</f>
-        <v>0.1889566346778267</v>
+      <c r="AF3" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE3)</f>
+        <v>9353</v>
+      </c>
+      <c r="AG3" s="30">
+        <f>AF3/SUM(AF:AF)</f>
+        <v>0.1849405809424001</v>
       </c>
     </row>
     <row r="4" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1659,8 +1627,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D4" s="15">
-        <v>3</v>
+      <c r="D4" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="E4" s="16">
         <v>45839</v>
@@ -1686,7 +1654,7 @@
       <c r="L4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="30" t="s">
+      <c r="M4" s="31" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="19">
@@ -1699,7 +1667,7 @@
         <v>2430</v>
       </c>
       <c r="Q4" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>810</v>
       </c>
       <c r="R4" s="23" t="s">
@@ -1709,41 +1677,39 @@
         <v>31</v>
       </c>
       <c r="T4" s="25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>--</v>
       </c>
       <c r="U4" s="26">
         <v>4000</v>
       </c>
       <c r="V4" s="25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1600</v>
       </c>
-      <c r="AE4" s="19" t="s">
+      <c r="AE4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="28">
-        <f t="shared" si="1"/>
+      <c r="AF4" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE4)</f>
         <v>3802</v>
       </c>
-      <c r="AG4" s="29">
-        <f t="shared" si="5"/>
-        <v>6.8583591889746734E-2</v>
+      <c r="AG4" s="30">
+        <f>AF4/SUM(AF:AF)</f>
+        <v>7.517845490676843E-2</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B5" s="13">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D5" s="15">
-        <v>4</v>
-      </c>
+      <c r="D5" s="15"/>
       <c r="E5" s="16">
-        <v>45844</v>
+        <v>45828</v>
       </c>
       <c r="F5" s="17" t="s">
         <v>23</v>
@@ -1760,68 +1726,66 @@
       <c r="J5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="31" t="s">
-        <v>46</v>
+      <c r="K5" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>42</v>
+        <v>49</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="N5" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P5" s="21">
-        <v>1200</v>
+        <v>1528</v>
       </c>
       <c r="Q5" s="22">
+        <f t="shared" si="1"/>
+        <v>764</v>
+      </c>
+      <c r="R5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>1200</v>
-      </c>
-      <c r="R5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S5" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U5" s="26">
+        <v>120</v>
+      </c>
+      <c r="V5" s="25">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U5" s="26">
-        <v>4000</v>
-      </c>
-      <c r="V5" s="25">
-        <f t="shared" si="4"/>
-        <v>1600</v>
-      </c>
-      <c r="AE5" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AF5" s="28">
-        <f t="shared" si="1"/>
-        <v>1380</v>
-      </c>
-      <c r="AG5" s="29">
-        <f t="shared" si="5"/>
-        <v>2.4893570964716068E-2</v>
+      <c r="AE5" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE5)</f>
+        <v>2732</v>
+      </c>
+      <c r="AG5" s="30">
+        <f>AF5/SUM(AF:AF)</f>
+        <v>5.4020920253890416E-2</v>
       </c>
     </row>
     <row r="6" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B6" s="13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D6" s="15">
-        <v>5</v>
-      </c>
+      <c r="D6" s="15"/>
       <c r="E6" s="16">
         <v>45828</v>
       </c>
@@ -1841,69 +1805,69 @@
         <v>25</v>
       </c>
       <c r="K6" s="19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M6" s="19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N6" s="19">
         <v>2</v>
       </c>
       <c r="O6" s="19" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="P6" s="21">
-        <v>1528</v>
+        <v>588</v>
       </c>
       <c r="Q6" s="22">
+        <f t="shared" si="1"/>
+        <v>294</v>
+      </c>
+      <c r="R6" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>764</v>
-      </c>
-      <c r="R6" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U6" s="26">
+        <v>25</v>
+      </c>
+      <c r="V6" s="25">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U6" s="26">
-        <v>120</v>
-      </c>
-      <c r="V6" s="25">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="AE6" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF6" s="28">
-        <f t="shared" si="1"/>
-        <v>3131</v>
-      </c>
-      <c r="AG6" s="29">
-        <f t="shared" si="5"/>
-        <v>5.6479543978642036E-2</v>
+        <v>10</v>
+      </c>
+      <c r="AE6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF6" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE6)</f>
+        <v>2514</v>
+      </c>
+      <c r="AG6" s="30">
+        <f>AF6/SUM(AF:AF)</f>
+        <v>4.9710319735827416E-2</v>
       </c>
     </row>
     <row r="7" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B7" s="13">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D7" s="15">
-        <v>6</v>
+      <c r="D7" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="E7" s="16">
-        <v>45828</v>
+        <v>45844</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>23</v>
@@ -1921,69 +1885,67 @@
         <v>25</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>55</v>
+        <v>41</v>
+      </c>
+      <c r="M7" s="31" t="s">
+        <v>59</v>
       </c>
       <c r="N7" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P7" s="21">
-        <v>588</v>
+        <v>2200</v>
       </c>
       <c r="Q7" s="22">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T7" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>294</v>
-      </c>
-      <c r="R7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="S7" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U7" s="26">
+        <v>300</v>
+      </c>
+      <c r="V7" s="25">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U7" s="26">
-        <v>25</v>
-      </c>
-      <c r="V7" s="25">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="AE7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF7" s="28">
-        <f t="shared" si="1"/>
-        <v>2514</v>
-      </c>
-      <c r="AG7" s="29">
-        <f t="shared" si="5"/>
-        <v>4.5349592322678406E-2</v>
+        <v>120</v>
+      </c>
+      <c r="AE7" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF7" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE7)</f>
+        <v>1100</v>
+      </c>
+      <c r="AG7" s="30">
+        <f>AF7/SUM(AF:AF)</f>
+        <v>2.1750736559033475E-2</v>
       </c>
     </row>
     <row r="8" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B8" s="13">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="C8" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D8" s="15">
-        <v>7</v>
-      </c>
+      <c r="D8" s="15"/>
       <c r="E8" s="16">
-        <v>45844</v>
+        <v>45778</v>
       </c>
       <c r="F8" s="17" t="s">
         <v>23</v>
@@ -1992,78 +1954,76 @@
         <v>23</v>
       </c>
       <c r="H8" s="18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="J8" s="17" t="s">
         <v>25</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="30" t="s">
-        <v>60</v>
+        <v>34</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="N8" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O8" s="19" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="P8" s="21">
-        <v>2200</v>
+        <v>1180</v>
       </c>
       <c r="Q8" s="22">
+        <f t="shared" si="1"/>
+        <v>197</v>
+      </c>
+      <c r="R8" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="S8" s="33">
+        <v>350</v>
+      </c>
+      <c r="T8" s="25">
         <f t="shared" si="2"/>
-        <v>2200</v>
-      </c>
-      <c r="R8" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S8" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" s="25" t="str">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="U8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="25" t="str">
         <f t="shared" si="3"/>
         <v>--</v>
       </c>
-      <c r="U8" s="26">
-        <v>300</v>
-      </c>
-      <c r="V8" s="25">
-        <f t="shared" si="4"/>
-        <v>120</v>
-      </c>
-      <c r="AE8" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF8" s="28">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="AG8" s="29">
-        <f t="shared" si="5"/>
-        <v>1.9842701493614258E-2</v>
+      <c r="AE8" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF8" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE8)</f>
+        <v>21879</v>
+      </c>
+      <c r="AG8" s="30">
+        <f>AF8/SUM(AF:AF)</f>
+        <v>0.43262215015917582</v>
       </c>
     </row>
     <row r="9" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B9" s="13">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C9" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D9" s="15">
-        <v>8</v>
-      </c>
+      <c r="D9" s="15"/>
       <c r="E9" s="16">
-        <v>45778</v>
+        <v>45844</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>23</v>
@@ -2075,75 +2035,64 @@
         <v>2</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N9" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="P9" s="21">
-        <v>1180</v>
+        <v>1683</v>
       </c>
       <c r="Q9" s="22">
+        <f t="shared" si="1"/>
+        <v>561</v>
+      </c>
+      <c r="R9" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" s="33">
+        <v>480</v>
+      </c>
+      <c r="T9" s="25">
         <f t="shared" si="2"/>
-        <v>197</v>
-      </c>
-      <c r="R9" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="S9" s="33">
-        <v>350</v>
-      </c>
-      <c r="T9" s="25">
+        <v>0.192</v>
+      </c>
+      <c r="U9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V9" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="U9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V9" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="AE9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF9" s="28">
-        <f t="shared" si="1"/>
-        <v>21879</v>
-      </c>
-      <c r="AG9" s="29">
-        <f t="shared" si="5"/>
-        <v>0.3946713327079876</v>
-      </c>
+        <v>--</v>
+      </c>
+      <c r="AE9"/>
+      <c r="AG9"/>
     </row>
     <row r="10" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D10" s="15">
-        <v>9</v>
-      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="16">
-        <v>45843</v>
+        <v>45844</v>
       </c>
       <c r="F10" s="17" t="s">
         <v>23</v>
@@ -2155,75 +2104,66 @@
         <v>2</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="J10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="31" t="s">
-        <v>69</v>
+      <c r="K10" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="N10" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="P10" s="21">
-        <v>1122</v>
+        <v>890</v>
       </c>
       <c r="Q10" s="22">
+        <f t="shared" si="1"/>
+        <v>890</v>
+      </c>
+      <c r="R10" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S10" s="33">
+        <v>2380</v>
+      </c>
+      <c r="T10" s="25">
         <f t="shared" si="2"/>
-        <v>561</v>
-      </c>
-      <c r="R10" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="S10" s="33">
-        <v>480</v>
-      </c>
-      <c r="T10" s="25">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="U10" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V10" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>0.192</v>
-      </c>
-      <c r="U10" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V10" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="AE10" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="AF10" s="28">
-        <f t="shared" si="1"/>
-        <v>762</v>
-      </c>
-      <c r="AG10" s="29">
-        <f t="shared" si="5"/>
-        <v>1.3745580489212785E-2</v>
-      </c>
+        <v>--</v>
+      </c>
+      <c r="AE10"/>
+      <c r="AG10"/>
     </row>
     <row r="11" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C11" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D11" s="15">
-        <v>10</v>
+      <c r="D11" s="15" t="b">
+        <v>1</v>
       </c>
       <c r="E11" s="16">
-        <v>45844</v>
+        <v>45838</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>23</v>
@@ -2241,42 +2181,43 @@
         <v>25</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="N11" s="19">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="P11" s="21">
-        <v>1683</v>
+        <f>4480+1120</f>
+        <v>5600</v>
       </c>
       <c r="Q11" s="22">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="33">
+        <v>1250</v>
+      </c>
+      <c r="T11" s="25">
         <f t="shared" si="2"/>
-        <v>561</v>
-      </c>
-      <c r="R11" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="S11" s="33">
-        <v>480</v>
-      </c>
-      <c r="T11" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="U11" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V11" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>0.192</v>
-      </c>
-      <c r="U11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V11" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE11"/>
@@ -2284,17 +2225,15 @@
     </row>
     <row r="12" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="13">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D12" s="15">
-        <v>11</v>
-      </c>
+      <c r="D12" s="15"/>
       <c r="E12" s="16">
-        <v>45844</v>
+        <v>45846</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>23</v>
@@ -2303,51 +2242,51 @@
         <v>23</v>
       </c>
       <c r="H12" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N12" s="19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O12" s="19" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="P12" s="21">
-        <v>890</v>
+        <v>1110</v>
       </c>
       <c r="Q12" s="22">
+        <f t="shared" si="1"/>
+        <v>185</v>
+      </c>
+      <c r="R12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="S12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T12" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>890</v>
-      </c>
-      <c r="R12" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S12" s="33">
-        <v>2380</v>
-      </c>
-      <c r="T12" s="25">
+        <v>--</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V12" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="U12" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V12" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE12"/>
@@ -2355,15 +2294,13 @@
     </row>
     <row r="13" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D13" s="15">
-        <v>12</v>
-      </c>
+      <c r="D13" s="15"/>
       <c r="E13" s="16">
         <v>45838</v>
       </c>
@@ -2374,51 +2311,51 @@
         <v>23</v>
       </c>
       <c r="H13" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13" s="17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="N13" s="19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O13" s="19" t="s">
         <v>36</v>
       </c>
       <c r="P13" s="21">
-        <v>4480</v>
+        <v>975</v>
       </c>
       <c r="Q13" s="22">
+        <f t="shared" si="1"/>
+        <v>975</v>
+      </c>
+      <c r="R13" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T13" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="R13" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S13" s="33">
-        <v>1250</v>
-      </c>
-      <c r="T13" s="25">
+        <v>--</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V13" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="U13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V13" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE13"/>
@@ -2426,17 +2363,15 @@
     </row>
     <row r="14" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D14" s="15">
-        <v>13</v>
-      </c>
+      <c r="D14" s="15"/>
       <c r="E14" s="16">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>23</v>
@@ -2445,51 +2380,51 @@
         <v>23</v>
       </c>
       <c r="H14" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>75</v>
+        <v>88</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="N14" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="P14" s="21">
-        <v>1120</v>
+        <v>883</v>
       </c>
       <c r="Q14" s="22">
+        <f t="shared" si="1"/>
+        <v>883</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="R14" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="S14" s="33">
-        <v>1250</v>
-      </c>
-      <c r="T14" s="25">
+        <v>--</v>
+      </c>
+      <c r="U14" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V14" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-      <c r="U14" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V14" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE14"/>
@@ -2497,17 +2432,15 @@
     </row>
     <row r="15" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="13">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C15" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D15" s="15">
-        <v>14</v>
-      </c>
+      <c r="D15" s="15"/>
       <c r="E15" s="16">
-        <v>45846</v>
+        <v>45840</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>23</v>
@@ -2522,45 +2455,45 @@
         <v>45</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>89</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="N15" s="19">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="P15" s="21">
-        <v>1110</v>
+        <v>677</v>
       </c>
       <c r="Q15" s="22">
+        <f t="shared" si="1"/>
+        <v>677</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>185</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V15" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V15" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE15"/>
@@ -2568,17 +2501,15 @@
     </row>
     <row r="16" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="13">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C16" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D16" s="15">
-        <v>15</v>
-      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="16">
-        <v>45838</v>
+        <v>45841</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>23</v>
@@ -2596,42 +2527,42 @@
         <v>25</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="19" t="s">
-        <v>87</v>
+        <v>41</v>
+      </c>
+      <c r="M16" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="N16" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" s="19" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="P16" s="21">
-        <v>975</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="22">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>975</v>
-      </c>
-      <c r="R16" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="S16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V16" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE16"/>
@@ -2639,15 +2570,13 @@
     </row>
     <row r="17" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C17" s="14">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D17" s="15">
-        <v>16</v>
-      </c>
+      <c r="D17" s="15"/>
       <c r="E17" s="16">
         <v>45839</v>
       </c>
@@ -2658,51 +2587,51 @@
         <v>23</v>
       </c>
       <c r="H17" s="18">
+        <v>4</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="L17" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="19">
         <v>3</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="19">
-        <v>1</v>
-      </c>
       <c r="O17" s="19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="P17" s="21">
-        <v>180</v>
+        <v>1380</v>
       </c>
       <c r="Q17" s="22">
+        <f t="shared" si="1"/>
+        <v>460</v>
+      </c>
+      <c r="R17" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="S17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="R17" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U17" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V17" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V17" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE17"/>
@@ -2710,70 +2639,62 @@
     </row>
     <row r="18" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="13">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C18" s="14">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D18" s="15">
-        <v>17</v>
-      </c>
+      <c r="D18" s="15"/>
       <c r="E18" s="16">
-        <v>45840</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>23</v>
-      </c>
+        <v>46022</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I18" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="L18" s="34" t="s">
-        <v>91</v>
+        <v>99</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="N18" s="19">
         <v>1</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P18" s="21">
-        <v>883</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="P18" s="21"/>
       <c r="Q18" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>883</v>
-      </c>
-      <c r="R18" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V18" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U18" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V18" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE18"/>
@@ -2781,70 +2702,62 @@
     </row>
     <row r="19" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="13">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D19" s="15">
-        <v>18</v>
-      </c>
+      <c r="D19" s="15"/>
       <c r="E19" s="16">
-        <v>45840</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>23</v>
-      </c>
+        <v>46022</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="L19" s="34" t="s">
-        <v>91</v>
+        <v>102</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>41</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N19" s="19">
         <v>1</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P19" s="21">
-        <v>497</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="P19" s="21"/>
       <c r="Q19" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>497</v>
-      </c>
-      <c r="R19" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T19" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U19" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V19" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V19" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE19"/>
@@ -2852,17 +2765,15 @@
     </row>
     <row r="20" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="13">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D20" s="15">
-        <v>19</v>
-      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="16">
-        <v>45841</v>
+        <v>45823</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>23</v>
@@ -2871,51 +2782,51 @@
         <v>23</v>
       </c>
       <c r="H20" s="18">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M20" s="30" t="s">
-        <v>31</v>
+        <v>106</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>107</v>
       </c>
       <c r="N20" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="P20" s="21">
-        <v>157</v>
+        <v>807</v>
       </c>
       <c r="Q20" s="22">
+        <f t="shared" si="1"/>
+        <v>807</v>
+      </c>
+      <c r="R20" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>79</v>
-      </c>
-      <c r="R20" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T20" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V20" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V20" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE20"/>
@@ -2923,17 +2834,15 @@
     </row>
     <row r="21" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="13">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C21" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D21" s="15">
-        <v>20</v>
-      </c>
+      <c r="D21" s="15"/>
       <c r="E21" s="16">
-        <v>45839</v>
+        <v>45843</v>
       </c>
       <c r="F21" s="17" t="s">
         <v>23</v>
@@ -2942,51 +2851,51 @@
         <v>23</v>
       </c>
       <c r="H21" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I21" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="30" t="s">
-        <v>31</v>
+      <c r="M21" s="19" t="s">
+        <v>110</v>
       </c>
       <c r="N21" s="19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O21" s="19" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="P21" s="21">
-        <v>1380</v>
+        <v>345</v>
       </c>
       <c r="Q21" s="22">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="R21" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>460</v>
-      </c>
-      <c r="R21" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="S21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U21" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE21"/>
@@ -2994,64 +2903,68 @@
     </row>
     <row r="22" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="13">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D22" s="15">
-        <v>21</v>
-      </c>
+      <c r="D22" s="15"/>
       <c r="E22" s="16">
-        <v>46022</v>
-      </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
+        <v>45844</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="H22" s="18">
         <v>5</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="19" t="s">
-        <v>105</v>
+      <c r="M22" s="31" t="s">
+        <v>113</v>
       </c>
       <c r="N22" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="21"/>
+        <v>43</v>
+      </c>
+      <c r="P22" s="21">
+        <v>1580</v>
+      </c>
       <c r="Q22" s="22">
+        <f t="shared" si="1"/>
+        <v>790</v>
+      </c>
+      <c r="R22" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V22" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U22" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V22" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE22"/>
@@ -3059,64 +2972,68 @@
     </row>
     <row r="23" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="14">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="D23" s="15">
-        <v>22</v>
-      </c>
+      <c r="D23" s="15"/>
       <c r="E23" s="16">
-        <v>46022</v>
-      </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
+        <v>45855</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>23</v>
+      </c>
       <c r="H23" s="18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I23" s="17" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>41</v>
+        <v>114</v>
+      </c>
+      <c r="L23" s="34" t="s">
+        <v>31</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="N23" s="19">
         <v>1</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="P23" s="21"/>
+        <v>55</v>
+      </c>
+      <c r="P23" s="21">
+        <v>2514</v>
+      </c>
       <c r="Q23" s="22">
+        <f t="shared" si="1"/>
+        <v>2514</v>
+      </c>
+      <c r="R23" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U23" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V23" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U23" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V23" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE23"/>
@@ -3124,17 +3041,15 @@
     </row>
     <row r="24" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="14">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D24" s="15">
-        <v>23</v>
-      </c>
+      <c r="D24" s="15"/>
       <c r="E24" s="16">
-        <v>45823</v>
+        <v>45778</v>
       </c>
       <c r="F24" s="17" t="s">
         <v>23</v>
@@ -3143,51 +3058,51 @@
         <v>23</v>
       </c>
       <c r="H24" s="18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="M24" s="19" t="s">
-        <v>112</v>
+        <v>34</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>118</v>
       </c>
       <c r="N24" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P24" s="21">
-        <v>807</v>
+        <v>1100</v>
       </c>
       <c r="Q24" s="22">
+        <f t="shared" si="1"/>
+        <v>367</v>
+      </c>
+      <c r="R24" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>807</v>
-      </c>
-      <c r="R24" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="S24" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U24" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V24" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U24" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V24" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE24"/>
@@ -3195,70 +3110,66 @@
     </row>
     <row r="25" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="13">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C25" s="14">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="D25" s="15">
-        <v>24</v>
-      </c>
+      <c r="D25" s="15"/>
       <c r="E25" s="16">
-        <v>45843</v>
+        <v>45847</v>
       </c>
       <c r="F25" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>23</v>
-      </c>
+      <c r="G25" s="17"/>
       <c r="H25" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I25" s="17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>114</v>
+        <v>120</v>
+      </c>
+      <c r="K25" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M25" s="19" t="s">
-        <v>115</v>
+        <v>73</v>
+      </c>
+      <c r="M25" s="37" t="s">
+        <v>122</v>
       </c>
       <c r="N25" s="19">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="P25" s="21">
-        <v>744</v>
+        <v>1760</v>
       </c>
       <c r="Q25" s="22">
+        <f t="shared" si="1"/>
+        <v>1760</v>
+      </c>
+      <c r="R25" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="R25" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="S25" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T25" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U25" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V25" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U25" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V25" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE25"/>
@@ -3266,17 +3177,15 @@
     </row>
     <row r="26" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="13">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D26" s="15">
-        <v>25</v>
-      </c>
+      <c r="D26" s="15"/>
       <c r="E26" s="16">
-        <v>45844</v>
+        <v>45778</v>
       </c>
       <c r="F26" s="17" t="s">
         <v>23</v>
@@ -3285,51 +3194,51 @@
         <v>23</v>
       </c>
       <c r="H26" s="18">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I26" s="17" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M26" s="30" t="s">
-        <v>119</v>
+        <v>73</v>
+      </c>
+      <c r="M26" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="N26" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="P26" s="21">
-        <v>1580</v>
+        <v>5589</v>
       </c>
       <c r="Q26" s="22">
+        <f t="shared" si="1"/>
+        <v>5589</v>
+      </c>
+      <c r="R26" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="S26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>790</v>
-      </c>
-      <c r="R26" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="S26" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U26" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V26" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U26" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V26" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE26"/>
@@ -3337,17 +3246,15 @@
     </row>
     <row r="27" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="13">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="C27" s="14">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="D27" s="15">
-        <v>26</v>
-      </c>
+      <c r="D27" s="15"/>
       <c r="E27" s="16">
-        <v>45855</v>
+        <v>45778</v>
       </c>
       <c r="F27" s="17" t="s">
         <v>23</v>
@@ -3356,51 +3263,51 @@
         <v>23</v>
       </c>
       <c r="H27" s="18">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="N27" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="P27" s="21">
-        <v>2514</v>
+        <v>14530</v>
       </c>
       <c r="Q27" s="22">
+        <f t="shared" si="1"/>
+        <v>14530</v>
+      </c>
+      <c r="R27" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="S27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>1257</v>
-      </c>
-      <c r="R27" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U27" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V27" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U27" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V27" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE27"/>
@@ -3408,17 +3315,15 @@
     </row>
     <row r="28" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="13">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C28" s="14">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D28" s="15">
-        <v>27</v>
-      </c>
+      <c r="D28" s="15"/>
       <c r="E28" s="16">
-        <v>45778</v>
+        <v>45851</v>
       </c>
       <c r="F28" s="17" t="s">
         <v>23</v>
@@ -3427,343 +3332,177 @@
         <v>23</v>
       </c>
       <c r="H28" s="18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>25</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="M28" s="30" t="s">
-        <v>124</v>
+        <v>41</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>134</v>
       </c>
       <c r="N28" s="19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="P28" s="21">
-        <v>1100</v>
+        <v>762</v>
       </c>
       <c r="Q28" s="22">
+        <f t="shared" si="1"/>
+        <v>762</v>
+      </c>
+      <c r="R28" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="S28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="25" t="str">
         <f t="shared" si="2"/>
-        <v>367</v>
-      </c>
-      <c r="R28" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="S28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="25" t="str">
+        <v>--</v>
+      </c>
+      <c r="U28" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="V28" s="25" t="str">
         <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U28" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V28" s="25" t="str">
-        <f t="shared" si="4"/>
         <v>--</v>
       </c>
       <c r="AE28"/>
       <c r="AG28"/>
     </row>
     <row r="29" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="13">
-        <v>27</v>
-      </c>
-      <c r="C29" s="14">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D29" s="15">
-        <v>28</v>
-      </c>
-      <c r="E29" s="16">
-        <v>45847</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18">
-        <v>8</v>
-      </c>
-      <c r="I29" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J29" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="N29" s="19">
-        <v>1</v>
-      </c>
-      <c r="O29" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P29" s="21">
-        <v>1760</v>
-      </c>
-      <c r="Q29" s="22">
-        <f t="shared" si="2"/>
-        <v>1760</v>
-      </c>
-      <c r="R29" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="S29" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T29" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U29" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V29" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="AE29"/>
-      <c r="AG29"/>
+      <c r="Q29" s="44" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
     </row>
     <row r="30" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="13">
-        <v>2</v>
-      </c>
-      <c r="C30" s="14">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="D30" s="15">
-        <v>29</v>
-      </c>
-      <c r="E30" s="16">
-        <v>45778</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" s="18">
-        <v>8</v>
-      </c>
-      <c r="I30" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="M30" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="N30" s="19">
-        <v>1</v>
-      </c>
-      <c r="O30" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P30" s="21">
-        <v>5589</v>
-      </c>
-      <c r="Q30" s="22">
-        <f t="shared" si="2"/>
-        <v>5589</v>
-      </c>
-      <c r="R30" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="S30" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T30" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U30" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V30" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="AE30"/>
-      <c r="AG30"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="str">
+        <f>IF(K30="","--",ROW()-ROW($C$1))</f>
+        <v>--</v>
+      </c>
+      <c r="D30" s="49"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R30" s="50"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="51"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="51"/>
     </row>
     <row r="31" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="13">
-        <v>1</v>
-      </c>
-      <c r="C31" s="14">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="D31" s="15">
-        <v>30</v>
-      </c>
-      <c r="E31" s="16">
-        <v>45778</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H31" s="18">
-        <v>8</v>
-      </c>
-      <c r="I31" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="M31" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="N31" s="19">
-        <v>1</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="P31" s="21">
-        <v>14530</v>
-      </c>
-      <c r="Q31" s="22">
-        <f t="shared" si="2"/>
-        <v>14530</v>
-      </c>
-      <c r="R31" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="S31" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T31" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U31" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V31" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="AE31"/>
-      <c r="AG31"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="str">
+        <f>IF(K31="","--",ROW()-ROW($C$1))</f>
+        <v>--</v>
+      </c>
+      <c r="D31" s="49"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R31" s="50"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="51"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="51"/>
     </row>
     <row r="32" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
-        <v>28</v>
-      </c>
-      <c r="C32" s="14">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="D32" s="15">
-        <v>31</v>
-      </c>
-      <c r="E32" s="16">
-        <v>45851</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="H32" s="18">
-        <v>9</v>
-      </c>
-      <c r="I32" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="J32" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="M32" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="N32" s="19">
-        <v>1</v>
-      </c>
-      <c r="O32" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="P32" s="21">
-        <v>762</v>
-      </c>
-      <c r="Q32" s="22">
-        <f t="shared" si="2"/>
-        <v>762</v>
-      </c>
-      <c r="R32" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="S32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T32" s="25" t="str">
-        <f t="shared" si="3"/>
-        <v>--</v>
-      </c>
-      <c r="U32" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="V32" s="25" t="str">
-        <f t="shared" si="4"/>
-        <v>--</v>
-      </c>
-      <c r="AE32"/>
-      <c r="AG32"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="str">
+        <f>IF(K32="","--",ROW()-ROW($C$1))</f>
+        <v>--</v>
+      </c>
+      <c r="D32" s="49"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R32" s="50"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="51"/>
     </row>
     <row r="33" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q33" s="42" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14" t="str">
+        <f>IF(K33="","--",ROW()-ROW($C$1))</f>
+        <v>--</v>
+      </c>
+      <c r="D33" s="49"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="22" t="str">
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R33" s="50"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="51"/>
     </row>
     <row r="34" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="13"/>
@@ -3771,7 +3510,7 @@
         <f>IF(K34="","--",ROW()-ROW($C$1))</f>
         <v>--</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="49"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -3785,22 +3524,22 @@
       <c r="O34" s="19"/>
       <c r="P34" s="21"/>
       <c r="Q34" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R34" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R34" s="50"/>
       <c r="S34" s="33"/>
-      <c r="T34" s="48"/>
+      <c r="T34" s="51"/>
       <c r="U34" s="26"/>
-      <c r="V34" s="48"/>
+      <c r="V34" s="51"/>
     </row>
     <row r="35" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="13"/>
       <c r="C35" s="14" t="str">
-        <f>IF(K35="","--",ROW()-ROW($C$1))</f>
-        <v>--</v>
-      </c>
-      <c r="D35" s="14"/>
+        <f t="shared" ref="C35:C58" si="4">IF(K35="","--",ROW()-ROW($C$1))</f>
+        <v>--</v>
+      </c>
+      <c r="D35" s="49"/>
       <c r="E35" s="16"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -3814,22 +3553,22 @@
       <c r="O35" s="19"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R35" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R35" s="50"/>
       <c r="S35" s="33"/>
-      <c r="T35" s="48"/>
+      <c r="T35" s="51"/>
       <c r="U35" s="26"/>
-      <c r="V35" s="48"/>
+      <c r="V35" s="51"/>
     </row>
     <row r="36" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="13"/>
       <c r="C36" s="14" t="str">
-        <f>IF(K36="","--",ROW()-ROW($C$1))</f>
-        <v>--</v>
-      </c>
-      <c r="D36" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D36" s="49"/>
       <c r="E36" s="16"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -3843,22 +3582,22 @@
       <c r="O36" s="19"/>
       <c r="P36" s="21"/>
       <c r="Q36" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R36" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R36" s="50"/>
       <c r="S36" s="33"/>
-      <c r="T36" s="48"/>
+      <c r="T36" s="51"/>
       <c r="U36" s="26"/>
-      <c r="V36" s="48"/>
+      <c r="V36" s="51"/>
     </row>
     <row r="37" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="13"/>
       <c r="C37" s="14" t="str">
-        <f>IF(K37="","--",ROW()-ROW($C$1))</f>
-        <v>--</v>
-      </c>
-      <c r="D37" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D37" s="49"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -3872,22 +3611,22 @@
       <c r="O37" s="19"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R37" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R37" s="50"/>
       <c r="S37" s="33"/>
-      <c r="T37" s="48"/>
+      <c r="T37" s="51"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="48"/>
+      <c r="V37" s="51"/>
     </row>
     <row r="38" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="13"/>
       <c r="C38" s="14" t="str">
-        <f>IF(K38="","--",ROW()-ROW($C$1))</f>
-        <v>--</v>
-      </c>
-      <c r="D38" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D38" s="49"/>
       <c r="E38" s="16"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -3901,22 +3640,22 @@
       <c r="O38" s="19"/>
       <c r="P38" s="21"/>
       <c r="Q38" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R38" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R38" s="50"/>
       <c r="S38" s="33"/>
-      <c r="T38" s="48"/>
+      <c r="T38" s="51"/>
       <c r="U38" s="26"/>
-      <c r="V38" s="48"/>
+      <c r="V38" s="51"/>
     </row>
     <row r="39" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="13"/>
       <c r="C39" s="14" t="str">
-        <f t="shared" ref="C39:C62" si="6">IF(K39="","--",ROW()-ROW($C$1))</f>
-        <v>--</v>
-      </c>
-      <c r="D39" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D39" s="49"/>
       <c r="E39" s="16"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -3930,22 +3669,22 @@
       <c r="O39" s="19"/>
       <c r="P39" s="21"/>
       <c r="Q39" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R39" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R39" s="50"/>
       <c r="S39" s="33"/>
-      <c r="T39" s="48"/>
+      <c r="T39" s="51"/>
       <c r="U39" s="26"/>
-      <c r="V39" s="48"/>
+      <c r="V39" s="51"/>
     </row>
     <row r="40" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="13"/>
       <c r="C40" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D40" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D40" s="49"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -3959,22 +3698,22 @@
       <c r="O40" s="19"/>
       <c r="P40" s="21"/>
       <c r="Q40" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R40" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R40" s="50"/>
       <c r="S40" s="33"/>
-      <c r="T40" s="48"/>
+      <c r="T40" s="51"/>
       <c r="U40" s="26"/>
-      <c r="V40" s="48"/>
+      <c r="V40" s="51"/>
     </row>
     <row r="41" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="13"/>
       <c r="C41" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D41" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D41" s="49"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -3988,22 +3727,22 @@
       <c r="O41" s="19"/>
       <c r="P41" s="21"/>
       <c r="Q41" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R41" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R41" s="50"/>
       <c r="S41" s="33"/>
-      <c r="T41" s="48"/>
+      <c r="T41" s="51"/>
       <c r="U41" s="26"/>
-      <c r="V41" s="48"/>
+      <c r="V41" s="51"/>
     </row>
     <row r="42" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="13"/>
       <c r="C42" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D42" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D42" s="49"/>
       <c r="E42" s="16"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -4017,22 +3756,22 @@
       <c r="O42" s="19"/>
       <c r="P42" s="21"/>
       <c r="Q42" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R42" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R42" s="50"/>
       <c r="S42" s="33"/>
-      <c r="T42" s="48"/>
+      <c r="T42" s="51"/>
       <c r="U42" s="26"/>
-      <c r="V42" s="48"/>
+      <c r="V42" s="51"/>
     </row>
     <row r="43" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="13"/>
       <c r="C43" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D43" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D43" s="49"/>
       <c r="E43" s="16"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -4046,22 +3785,22 @@
       <c r="O43" s="19"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R43" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R43" s="50"/>
       <c r="S43" s="33"/>
-      <c r="T43" s="48"/>
+      <c r="T43" s="51"/>
       <c r="U43" s="26"/>
-      <c r="V43" s="48"/>
+      <c r="V43" s="51"/>
     </row>
     <row r="44" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B44" s="13"/>
       <c r="C44" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D44" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D44" s="49"/>
       <c r="E44" s="16"/>
       <c r="F44" s="17"/>
       <c r="G44" s="17"/>
@@ -4075,22 +3814,22 @@
       <c r="O44" s="19"/>
       <c r="P44" s="21"/>
       <c r="Q44" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R44" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R44" s="50"/>
       <c r="S44" s="33"/>
-      <c r="T44" s="48"/>
+      <c r="T44" s="51"/>
       <c r="U44" s="26"/>
-      <c r="V44" s="48"/>
+      <c r="V44" s="51"/>
     </row>
     <row r="45" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="13"/>
       <c r="C45" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D45" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D45" s="49"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
       <c r="G45" s="17"/>
@@ -4104,22 +3843,22 @@
       <c r="O45" s="19"/>
       <c r="P45" s="21"/>
       <c r="Q45" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R45" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R45" s="50"/>
       <c r="S45" s="33"/>
-      <c r="T45" s="48"/>
+      <c r="T45" s="51"/>
       <c r="U45" s="26"/>
-      <c r="V45" s="48"/>
+      <c r="V45" s="51"/>
     </row>
     <row r="46" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="13"/>
       <c r="C46" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D46" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D46" s="49"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
       <c r="G46" s="17"/>
@@ -4133,22 +3872,22 @@
       <c r="O46" s="19"/>
       <c r="P46" s="21"/>
       <c r="Q46" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R46" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R46" s="50"/>
       <c r="S46" s="33"/>
-      <c r="T46" s="48"/>
+      <c r="T46" s="51"/>
       <c r="U46" s="26"/>
-      <c r="V46" s="48"/>
+      <c r="V46" s="51"/>
     </row>
     <row r="47" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="13"/>
       <c r="C47" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D47" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D47" s="49"/>
       <c r="E47" s="16"/>
       <c r="F47" s="17"/>
       <c r="G47" s="17"/>
@@ -4162,22 +3901,22 @@
       <c r="O47" s="19"/>
       <c r="P47" s="21"/>
       <c r="Q47" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R47" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R47" s="50"/>
       <c r="S47" s="33"/>
-      <c r="T47" s="48"/>
+      <c r="T47" s="51"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="48"/>
+      <c r="V47" s="51"/>
     </row>
     <row r="48" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="13"/>
       <c r="C48" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D48" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D48" s="49"/>
       <c r="E48" s="16"/>
       <c r="F48" s="17"/>
       <c r="G48" s="17"/>
@@ -4191,22 +3930,22 @@
       <c r="O48" s="19"/>
       <c r="P48" s="21"/>
       <c r="Q48" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R48" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R48" s="50"/>
       <c r="S48" s="33"/>
-      <c r="T48" s="48"/>
+      <c r="T48" s="51"/>
       <c r="U48" s="26"/>
-      <c r="V48" s="48"/>
+      <c r="V48" s="51"/>
     </row>
     <row r="49" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="13"/>
       <c r="C49" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D49" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D49" s="49"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
       <c r="G49" s="17"/>
@@ -4220,22 +3959,22 @@
       <c r="O49" s="19"/>
       <c r="P49" s="21"/>
       <c r="Q49" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R49" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R49" s="50"/>
       <c r="S49" s="33"/>
-      <c r="T49" s="48"/>
+      <c r="T49" s="51"/>
       <c r="U49" s="26"/>
-      <c r="V49" s="48"/>
+      <c r="V49" s="51"/>
     </row>
     <row r="50" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="13"/>
       <c r="C50" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D50" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D50" s="49"/>
       <c r="E50" s="16"/>
       <c r="F50" s="17"/>
       <c r="G50" s="17"/>
@@ -4249,22 +3988,22 @@
       <c r="O50" s="19"/>
       <c r="P50" s="21"/>
       <c r="Q50" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R50" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R50" s="50"/>
       <c r="S50" s="33"/>
-      <c r="T50" s="48"/>
+      <c r="T50" s="51"/>
       <c r="U50" s="26"/>
-      <c r="V50" s="48"/>
+      <c r="V50" s="51"/>
     </row>
     <row r="51" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="13"/>
       <c r="C51" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D51" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D51" s="49"/>
       <c r="E51" s="16"/>
       <c r="F51" s="17"/>
       <c r="G51" s="17"/>
@@ -4278,22 +4017,22 @@
       <c r="O51" s="19"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R51" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R51" s="50"/>
       <c r="S51" s="33"/>
-      <c r="T51" s="48"/>
+      <c r="T51" s="51"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="48"/>
+      <c r="V51" s="51"/>
     </row>
     <row r="52" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="13"/>
       <c r="C52" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D52" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D52" s="49"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -4307,22 +4046,22 @@
       <c r="O52" s="19"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R52" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R52" s="50"/>
       <c r="S52" s="33"/>
-      <c r="T52" s="48"/>
+      <c r="T52" s="51"/>
       <c r="U52" s="26"/>
-      <c r="V52" s="48"/>
+      <c r="V52" s="51"/>
     </row>
     <row r="53" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="13"/>
       <c r="C53" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D53" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D53" s="49"/>
       <c r="E53" s="16"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -4336,22 +4075,22 @@
       <c r="O53" s="19"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R53" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R53" s="50"/>
       <c r="S53" s="33"/>
-      <c r="T53" s="48"/>
+      <c r="T53" s="51"/>
       <c r="U53" s="26"/>
-      <c r="V53" s="48"/>
+      <c r="V53" s="51"/>
     </row>
     <row r="54" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="13"/>
       <c r="C54" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D54" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D54" s="49"/>
       <c r="E54" s="16"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -4365,22 +4104,22 @@
       <c r="O54" s="19"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R54" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R54" s="50"/>
       <c r="S54" s="33"/>
-      <c r="T54" s="48"/>
+      <c r="T54" s="51"/>
       <c r="U54" s="26"/>
-      <c r="V54" s="48"/>
+      <c r="V54" s="51"/>
     </row>
     <row r="55" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="13"/>
       <c r="C55" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D55" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D55" s="49"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
       <c r="G55" s="17"/>
@@ -4394,22 +4133,22 @@
       <c r="O55" s="19"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R55" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R55" s="50"/>
       <c r="S55" s="33"/>
-      <c r="T55" s="48"/>
+      <c r="T55" s="51"/>
       <c r="U55" s="26"/>
-      <c r="V55" s="48"/>
+      <c r="V55" s="51"/>
     </row>
     <row r="56" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="13"/>
       <c r="C56" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D56" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D56" s="49"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
       <c r="G56" s="17"/>
@@ -4423,22 +4162,22 @@
       <c r="O56" s="19"/>
       <c r="P56" s="21"/>
       <c r="Q56" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R56" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R56" s="50"/>
       <c r="S56" s="33"/>
-      <c r="T56" s="48"/>
+      <c r="T56" s="51"/>
       <c r="U56" s="26"/>
-      <c r="V56" s="48"/>
+      <c r="V56" s="51"/>
     </row>
     <row r="57" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="13"/>
       <c r="C57" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D57" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D57" s="49"/>
       <c r="E57" s="16"/>
       <c r="F57" s="17"/>
       <c r="G57" s="17"/>
@@ -4452,22 +4191,22 @@
       <c r="O57" s="19"/>
       <c r="P57" s="21"/>
       <c r="Q57" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R57" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R57" s="50"/>
       <c r="S57" s="33"/>
-      <c r="T57" s="48"/>
+      <c r="T57" s="51"/>
       <c r="U57" s="26"/>
-      <c r="V57" s="48"/>
+      <c r="V57" s="51"/>
     </row>
     <row r="58" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="13"/>
       <c r="C58" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D58" s="14"/>
+        <f t="shared" si="4"/>
+        <v>--</v>
+      </c>
+      <c r="D58" s="49"/>
       <c r="E58" s="16"/>
       <c r="F58" s="17"/>
       <c r="G58" s="17"/>
@@ -4481,146 +4220,18 @@
       <c r="O58" s="19"/>
       <c r="P58" s="21"/>
       <c r="Q58" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R58" s="47"/>
+        <f t="shared" si="1"/>
+        <v>--</v>
+      </c>
+      <c r="R58" s="50"/>
       <c r="S58" s="33"/>
-      <c r="T58" s="48"/>
+      <c r="T58" s="51"/>
       <c r="U58" s="26"/>
-      <c r="V58" s="48"/>
-    </row>
-    <row r="59" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13"/>
-      <c r="C59" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R59" s="47"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="48"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="48"/>
-    </row>
-    <row r="60" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13"/>
-      <c r="C60" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R60" s="47"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="48"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="48"/>
-    </row>
-    <row r="61" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13"/>
-      <c r="C61" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R61" s="47"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="48"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="48"/>
-    </row>
-    <row r="62" spans="2:22" ht="20" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13"/>
-      <c r="C62" s="14" t="str">
-        <f t="shared" si="6"/>
-        <v>--</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="21"/>
-      <c r="Q62" s="22" t="str">
-        <f t="shared" si="2"/>
-        <v>--</v>
-      </c>
-      <c r="R62" s="47"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="48"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="48"/>
+      <c r="V58" s="51"/>
     </row>
   </sheetData>
-  <autoFilter ref="B1:V38" xr:uid="{787C44D5-0115-461B-94AD-9D8FA2E650AE}"/>
+  <autoFilter ref="B1:V34" xr:uid="{787C44D5-0115-461B-94AD-9D8FA2E650AE}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="H1:H4 H6:H32 H34:H1048576">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
@@ -4633,8 +4244,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="H30:H1048576 H1:H28">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4645,8 +4256,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG10">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="AG2:AG8">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4654,44 +4265,46 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7EAF1BCE-E377-4CF2-B7C4-7943C724BDEC}</x14:id>
+          <x14:id>{B175D629-BAAD-49F0-BFED-C83092E677C1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{00C358D8-EEB1-49DB-8369-E95FB26A269B}">
+      <formula1>"True, False"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
-    <hyperlink ref="R27" r:id="rId1" xr:uid="{B6BB897F-47F0-4AA2-84B2-A1DB13CCEFBD}"/>
-    <hyperlink ref="R30" r:id="rId2" xr:uid="{324ADD04-1773-419A-B4AB-8214A9E2E790}"/>
-    <hyperlink ref="R4" r:id="rId3" xr:uid="{86D69D89-8489-4D6C-9F36-00FA98A8E867}"/>
-    <hyperlink ref="R15" r:id="rId4" xr:uid="{9E9D9BC3-EE12-4011-98E2-504EAFFE97C4}"/>
-    <hyperlink ref="R10" r:id="rId5" xr:uid="{56A1DEA0-93EB-490B-9A59-7E3D81803E5E}"/>
-    <hyperlink ref="R24" r:id="rId6" xr:uid="{755F66B7-4DFF-4D67-AF76-7BB805876853}"/>
-    <hyperlink ref="R7" r:id="rId7" xr:uid="{6448195D-BF06-4AE8-83B8-2D3A9CE1161B}"/>
-    <hyperlink ref="R2" r:id="rId8" xr:uid="{5A6FC8C6-0D9F-4DC1-805C-B6B5DAFEB527}"/>
-    <hyperlink ref="R32" r:id="rId9" xr:uid="{2A37BD2A-D693-4430-9D01-910F463C35AE}"/>
-    <hyperlink ref="R21" r:id="rId10" xr:uid="{53EA0577-2B20-4DA3-8F81-8D765A535D16}"/>
-    <hyperlink ref="R11" r:id="rId11" xr:uid="{0C02DBE9-FC67-46EF-97E3-BCA91305736B}"/>
-    <hyperlink ref="R26" r:id="rId12" xr:uid="{ABF8544C-021F-474A-A5D0-A3FC2D84C1FE}"/>
-    <hyperlink ref="R8" r:id="rId13" xr:uid="{FD589511-F560-46B8-8A1C-11E9F3509C5D}"/>
-    <hyperlink ref="R31" r:id="rId14" xr:uid="{C450D745-EA03-47F1-B0D6-01300091F452}"/>
-    <hyperlink ref="R3" r:id="rId15" xr:uid="{C480E7C1-DA05-41FE-BF57-53B9A3C80FC5}"/>
-    <hyperlink ref="R9" r:id="rId16" xr:uid="{8AFA9A40-A9D2-4C22-85D6-342BF4D23F0F}"/>
-    <hyperlink ref="R28" r:id="rId17" xr:uid="{D8BBEAA9-B64F-4C5A-917E-F74912D6A6FC}"/>
-    <hyperlink ref="R13" r:id="rId18" xr:uid="{5F4ADA69-A7F5-4BAB-AA1A-AD099ED80EEC}"/>
-    <hyperlink ref="R14" r:id="rId19" xr:uid="{5177A6F4-2665-41A8-875C-E0016B885BA8}"/>
-    <hyperlink ref="R25" r:id="rId20" xr:uid="{3410F819-FC7E-49C3-B9A8-FF1E764F0A39}"/>
-    <hyperlink ref="R16" r:id="rId21" xr:uid="{3648232C-1FF1-4C8C-83CC-BCA7C37A74A4}"/>
-    <hyperlink ref="R29" r:id="rId22" xr:uid="{AB320016-C056-45D4-9CD5-7871E38D07FC}"/>
-    <hyperlink ref="R12" r:id="rId23" xr:uid="{07C9EB30-4C99-48D6-90E6-83293788C6E6}"/>
-    <hyperlink ref="R5" r:id="rId24" xr:uid="{EC632332-ECEE-47BD-BE4C-EA61C7EA76B5}"/>
+    <hyperlink ref="R23" r:id="rId1" xr:uid="{89A2FB66-CDD3-43B8-AAEE-013BDAE5768A}"/>
+    <hyperlink ref="R26" r:id="rId2" xr:uid="{EA984563-704D-4B0F-8227-F01014DE986A}"/>
+    <hyperlink ref="R4" r:id="rId3" xr:uid="{5E37394A-1E3A-41B6-97CE-BD0EACA759E1}"/>
+    <hyperlink ref="R12" r:id="rId4" xr:uid="{535478E4-0B43-4293-963F-3B89EF35B155}"/>
+    <hyperlink ref="R20" r:id="rId5" xr:uid="{2546C04D-F607-422D-85CE-92CADAAA88F0}"/>
+    <hyperlink ref="R6" r:id="rId6" xr:uid="{13F285BE-F8B8-452E-A322-198F2331A524}"/>
+    <hyperlink ref="R2" r:id="rId7" xr:uid="{B575ED42-311D-4812-898F-6D51DDDAEE07}"/>
+    <hyperlink ref="R28" r:id="rId8" xr:uid="{38515B88-F820-4988-9F7E-38F4E7BB4C87}"/>
+    <hyperlink ref="R17" r:id="rId9" xr:uid="{5AB7E5D6-00AE-4565-A58A-0651E8F71C36}"/>
+    <hyperlink ref="R9" r:id="rId10" xr:uid="{8A3EBF45-2EA5-4B4F-A7F3-151322523225}"/>
+    <hyperlink ref="R22" r:id="rId11" xr:uid="{72E91CD8-575F-4B08-968F-21782932F173}"/>
+    <hyperlink ref="R7" r:id="rId12" xr:uid="{3BA4AD08-D028-4702-9CEC-4BC62660B19B}"/>
+    <hyperlink ref="R27" r:id="rId13" xr:uid="{D761F5E2-4638-4FA9-B20B-6ED3EE92A96A}"/>
+    <hyperlink ref="R3" r:id="rId14" xr:uid="{D2D73A54-4FA2-4A8B-A640-B8BEFBCA9D01}"/>
+    <hyperlink ref="R8" r:id="rId15" xr:uid="{5BF63922-251D-4DA6-891A-B88FCA46A2FA}"/>
+    <hyperlink ref="R24" r:id="rId16" xr:uid="{2D516C7E-BD9C-437A-9AF0-C98A5084D974}"/>
+    <hyperlink ref="R11" r:id="rId17" xr:uid="{3F4247B0-A43D-4A3E-927F-C902F7A98D45}"/>
+    <hyperlink ref="R21" r:id="rId18" xr:uid="{60320224-C310-4977-AF3B-D57C0F9981D0}"/>
+    <hyperlink ref="R13" r:id="rId19" xr:uid="{75A60F28-E616-41CA-BE37-F89F936EAD9D}"/>
+    <hyperlink ref="R25" r:id="rId20" xr:uid="{B30E099B-87E7-4340-9871-7C0313B6CC83}"/>
+    <hyperlink ref="R10" r:id="rId21" xr:uid="{AE9E4923-F1A8-4F3D-8246-10449A811E44}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7EAF1BCE-E377-4CF2-B7C4-7943C724BDEC}">
+          <x14:cfRule type="dataBar" id="{B175D629-BAAD-49F0-BFED-C83092E677C1}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -4699,7 +4312,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AG2:AG10</xm:sqref>
+          <xm:sqref>AG2:AG8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/防災包清單_Ver20250725.xlsx
+++ b/防災包清單_Ver20250725.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RobertHuang\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB172D96-5E09-413B-9BC7-18D60285A5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C4BDA-BB03-4325-A0C6-B5764777AD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25710" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{21E82D3A-6A5F-4605-BB94-747B891E418C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{21E82D3A-6A5F-4605-BB94-747B891E418C}"/>
   </bookViews>
   <sheets>
     <sheet name="itemList" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="137">
   <si>
     <t>購買
 順序</t>
@@ -332,6 +332,9 @@
   <si>
     <t>https://tw.shp.ee/W1LnMkN</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>9其他</t>
   </si>
   <si>
     <t>德國NRG-5棕褐色包裝(非素食)緊急乾糧</t>
@@ -959,7 +962,7 @@
       <sheetName val="房貸水電瓦斯費"/>
       <sheetName val="樞紐"/>
       <sheetName val="所得稅"/>
-      <sheetName val="RBT實際的購物清單"/>
+      <sheetName val="防災包清單_ItemList"/>
       <sheetName val="工作表1"/>
       <sheetName val="帳務明細"/>
       <sheetName val="預算'all"/>
@@ -1353,10 +1356,10 @@
   <dimension ref="B1:AG58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A11" activeCellId="2" sqref="A4:XFD4 A7:XFD7 A11:XFD11"/>
+      <selection pane="bottomRight" activeCell="AE1" sqref="AE1:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1538,7 +1541,7 @@
       </c>
       <c r="AG2" s="30">
         <f>AF2/SUM(AF:AF)</f>
-        <v>0.18177683744290432</v>
+        <v>0.17439059091340225</v>
       </c>
     </row>
     <row r="3" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1616,7 +1619,7 @@
       </c>
       <c r="AG3" s="30">
         <f>AF3/SUM(AF:AF)</f>
-        <v>0.1849405809424001</v>
+        <v>0.17742578013848051</v>
       </c>
     </row>
     <row r="4" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1696,7 +1699,7 @@
       </c>
       <c r="AG4" s="30">
         <f>AF4/SUM(AF:AF)</f>
-        <v>7.517845490676843E-2</v>
+        <v>7.2123683960921933E-2</v>
       </c>
     </row>
     <row r="5" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1766,15 +1769,15 @@
         <v>48</v>
       </c>
       <c r="AE5" s="28" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AF5" s="29">
         <f>SUMIFS($P:$P,$I:$I,$AE5)</f>
-        <v>2732</v>
+        <v>1380</v>
       </c>
       <c r="AG5" s="30">
         <f>AF5/SUM(AF:AF)</f>
-        <v>5.4020920253890416E-2</v>
+        <v>2.6178507066299914E-2</v>
       </c>
     </row>
     <row r="6" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1844,15 +1847,15 @@
         <v>10</v>
       </c>
       <c r="AE6" s="28" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="29">
         <f>SUMIFS($P:$P,$I:$I,$AE6)</f>
-        <v>2514</v>
+        <v>2732</v>
       </c>
       <c r="AG6" s="30">
         <f>AF6/SUM(AF:AF)</f>
-        <v>4.9710319735827416E-2</v>
+        <v>5.1825856018211137E-2</v>
       </c>
     </row>
     <row r="7" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -1924,15 +1927,15 @@
         <v>120</v>
       </c>
       <c r="AE7" s="28" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AF7" s="29">
         <f>SUMIFS($P:$P,$I:$I,$AE7)</f>
-        <v>1100</v>
+        <v>2514</v>
       </c>
       <c r="AG7" s="30">
         <f>AF7/SUM(AF:AF)</f>
-        <v>2.1750736559033475E-2</v>
+        <v>4.7690410699042021E-2</v>
       </c>
     </row>
     <row r="8" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -2002,15 +2005,15 @@
         <v>--</v>
       </c>
       <c r="AE8" s="28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AF8" s="29">
         <f>SUMIFS($P:$P,$I:$I,$AE8)</f>
-        <v>21879</v>
+        <v>1100</v>
       </c>
       <c r="AG8" s="30">
         <f>AF8/SUM(AF:AF)</f>
-        <v>0.43262215015917582</v>
+        <v>2.0866925922412974E-2</v>
       </c>
     </row>
     <row r="9" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
@@ -2079,8 +2082,17 @@
         <f t="shared" si="3"/>
         <v>--</v>
       </c>
-      <c r="AE9"/>
-      <c r="AG9"/>
+      <c r="AE9" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF9" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE9)</f>
+        <v>21879</v>
+      </c>
+      <c r="AG9" s="30">
+        <f>AF9/SUM(AF:AF)</f>
+        <v>0.41504315659679408</v>
+      </c>
     </row>
     <row r="10" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B10" s="13">
@@ -2110,19 +2122,19 @@
         <v>25</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M10" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N10" s="19">
         <v>1</v>
       </c>
       <c r="O10" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="21">
         <v>890</v>
@@ -2148,8 +2160,17 @@
         <f t="shared" si="3"/>
         <v>--</v>
       </c>
-      <c r="AE10"/>
-      <c r="AG10"/>
+      <c r="AE10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF10" s="29">
+        <f>SUMIFS($P:$P,$I:$I,$AE10)</f>
+        <v>762</v>
+      </c>
+      <c r="AG10" s="30">
+        <f>AF10/SUM(AF:AF)</f>
+        <v>1.445508868443517E-2</v>
+      </c>
     </row>
     <row r="11" spans="2:33" ht="20" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="13">
@@ -2181,13 +2202,13 @@
         <v>25</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N11" s="19">
         <v>20</v>
@@ -2204,7 +2225,7 @@
         <v>280</v>
       </c>
       <c r="R11" s="23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S11" s="33">
         <v>1250</v>
@@ -2251,13 +2272,13 @@
         <v>25</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M12" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N12" s="19">
         <v>6</v>
@@ -2273,7 +2294,7 @@
         <v>185</v>
       </c>
       <c r="R12" s="23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="S12" s="24" t="s">
         <v>31</v>
@@ -2320,13 +2341,13 @@
         <v>25</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N13" s="19">
         <v>1</v>
@@ -2342,7 +2363,7 @@
         <v>975</v>
       </c>
       <c r="R13" s="23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S13" s="24" t="s">
         <v>31</v>
@@ -2386,22 +2407,22 @@
         <v>45</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L14" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N14" s="19">
         <v>1</v>
       </c>
       <c r="O14" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P14" s="21">
         <v>883</v>
@@ -2455,22 +2476,22 @@
         <v>45</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K15" s="19" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L15" s="34" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N15" s="19">
         <v>1</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P15" s="21">
         <v>677</v>
@@ -2527,7 +2548,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="19" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="20" t="s">
         <v>41</v>
@@ -2596,7 +2617,7 @@
         <v>39</v>
       </c>
       <c r="K17" s="19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>41</v>
@@ -2608,7 +2629,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P17" s="21">
         <v>1380</v>
@@ -2658,22 +2679,22 @@
         <v>51</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M18" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N18" s="19">
         <v>1</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="22">
@@ -2721,22 +2742,22 @@
         <v>51</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K19" s="19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L19" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M19" s="19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N19" s="19">
         <v>1</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="22">
@@ -2788,22 +2809,22 @@
         <v>51</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M20" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N20" s="19">
         <v>1</v>
       </c>
       <c r="O20" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P20" s="21">
         <v>807</v>
@@ -2813,7 +2834,7 @@
         <v>807</v>
       </c>
       <c r="R20" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="S20" s="24" t="s">
         <v>31</v>
@@ -2860,13 +2881,13 @@
         <v>25</v>
       </c>
       <c r="K21" s="19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L21" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N21" s="19">
         <v>5</v>
@@ -2882,7 +2903,7 @@
         <v>69</v>
       </c>
       <c r="R21" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S21" s="24" t="s">
         <v>31</v>
@@ -2929,13 +2950,13 @@
         <v>25</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M22" s="31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N22" s="19">
         <v>2</v>
@@ -2998,13 +3019,13 @@
         <v>25</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L23" s="34" t="s">
         <v>31</v>
       </c>
       <c r="M23" s="19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N23" s="19">
         <v>1</v>
@@ -3020,7 +3041,7 @@
         <v>2514</v>
       </c>
       <c r="R23" s="23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S23" s="24" t="s">
         <v>31</v>
@@ -3067,19 +3088,19 @@
         <v>25</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>34</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N24" s="19">
         <v>3</v>
       </c>
       <c r="O24" s="19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P24" s="21">
         <v>1100</v>
@@ -3089,7 +3110,7 @@
         <v>367</v>
       </c>
       <c r="R24" s="23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S24" s="24" t="s">
         <v>31</v>
@@ -3131,22 +3152,22 @@
         <v>67</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M25" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N25" s="19">
         <v>1</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P25" s="21">
         <v>1760</v>
@@ -3156,7 +3177,7 @@
         <v>1760</v>
       </c>
       <c r="R25" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S25" s="24" t="s">
         <v>31</v>
@@ -3200,22 +3221,22 @@
         <v>67</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M26" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N26" s="19">
         <v>1</v>
       </c>
       <c r="O26" s="19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P26" s="21">
         <v>5589</v>
@@ -3225,7 +3246,7 @@
         <v>5589</v>
       </c>
       <c r="R26" s="23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="S26" s="24" t="s">
         <v>31</v>
@@ -3269,22 +3290,22 @@
         <v>67</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L27" s="34" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M27" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N27" s="19">
         <v>1</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P27" s="21">
         <v>14530</v>
@@ -3294,7 +3315,7 @@
         <v>14530</v>
       </c>
       <c r="R27" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="S27" s="24" t="s">
         <v>31</v>
@@ -3335,25 +3356,25 @@
         <v>9</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>25</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L28" s="20" t="s">
         <v>41</v>
       </c>
       <c r="M28" s="19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N28" s="19">
         <v>1</v>
       </c>
       <c r="O28" s="19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P28" s="21">
         <v>762</v>
@@ -3363,7 +3384,7 @@
         <v>762</v>
       </c>
       <c r="R28" s="35" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S28" s="24" t="s">
         <v>31</v>
@@ -4256,8 +4277,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG2:AG8">
-    <cfRule type="dataBar" priority="17">
+  <conditionalFormatting sqref="AG2:AG10">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -4312,7 +4333,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>AG2:AG8</xm:sqref>
+          <xm:sqref>AG2:AG10</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
